--- a/data/trans_orig/P35_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>39253</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23706</v>
+        <v>22529</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59900</v>
+        <v>62962</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0962574311036533</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05813244637360649</v>
+        <v>0.05524721596792231</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1468878834815029</v>
+        <v>0.1543972733255558</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -762,19 +762,19 @@
         <v>45657</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29949</v>
+        <v>29452</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66149</v>
+        <v>64680</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1259457298267249</v>
+        <v>0.1259457298267248</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08261459644053631</v>
+        <v>0.08124357362061331</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1824736064281436</v>
+        <v>0.1784212908334601</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -783,19 +783,19 @@
         <v>84910</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60782</v>
+        <v>62149</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>113612</v>
+        <v>112515</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1102289920799062</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07890637603846549</v>
+        <v>0.08068161265287088</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1474890194076081</v>
+        <v>0.1460653246687122</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>7551</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19024</v>
+        <v>18022</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01851707907063682</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004531703311001639</v>
+        <v>0.004535157296787112</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04665230499730184</v>
+        <v>0.04419486882807235</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>10678</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4182</v>
+        <v>4956</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22322</v>
+        <v>21932</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02945462942532833</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01153573410609025</v>
+        <v>0.01367051248356615</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06157539713798277</v>
+        <v>0.06049955135529052</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -854,19 +854,19 @@
         <v>18229</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9497</v>
+        <v>10018</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32866</v>
+        <v>31213</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02366438148553245</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01232868383252916</v>
+        <v>0.01300559048961261</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04266637552211788</v>
+        <v>0.0405199339667433</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>19045</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8877</v>
+        <v>8069</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37547</v>
+        <v>34676</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04670205375094974</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02176816061634376</v>
+        <v>0.01978746389798586</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09207294861314967</v>
+        <v>0.08503362396675035</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -904,19 +904,19 @@
         <v>43580</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29248</v>
+        <v>27643</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>65498</v>
+        <v>60953</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1202166813725491</v>
+        <v>0.120216681372549</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0806819244436386</v>
+        <v>0.07625325145489334</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1806773290239194</v>
+        <v>0.1681408816071735</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>32</v>
@@ -925,19 +925,19 @@
         <v>62625</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44427</v>
+        <v>43025</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>86684</v>
+        <v>85650</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08129865061365589</v>
+        <v>0.08129865061365588</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05767502992577478</v>
+        <v>0.05585496191432712</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1125314422055355</v>
+        <v>0.1111897554687435</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>341944</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>316894</v>
+        <v>316588</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>364071</v>
+        <v>362781</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8385234360747603</v>
+        <v>0.8385234360747601</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7770943114274529</v>
+        <v>0.7763447747226989</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8927828063269703</v>
+        <v>0.8896204929714984</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>153</v>
@@ -975,19 +975,19 @@
         <v>262598</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>235923</v>
+        <v>238965</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>286145</v>
+        <v>283638</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7243829593753978</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6507998286491449</v>
+        <v>0.6591922807370179</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7893382825432735</v>
+        <v>0.7824242964080959</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>297</v>
@@ -996,19 +996,19 @@
         <v>604542</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>572099</v>
+        <v>569210</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>635845</v>
+        <v>636616</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7848079758209057</v>
+        <v>0.7848079758209053</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7426909970266995</v>
+        <v>0.7389416969450658</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8254451597476119</v>
+        <v>0.8264464941770562</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>40842</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>27091</v>
+        <v>25463</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>58611</v>
+        <v>59687</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08564261975105861</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05680836405710277</v>
+        <v>0.05339458892659896</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1229029369214026</v>
+        <v>0.1251587575459532</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>43</v>
@@ -1121,19 +1121,19 @@
         <v>46111</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>34027</v>
+        <v>34037</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60481</v>
+        <v>62440</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09202173896064815</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0679071717430019</v>
+        <v>0.06792775637487755</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1207001985061338</v>
+        <v>0.1246103331449192</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>67</v>
@@ -1142,19 +1142,19 @@
         <v>86953</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>66396</v>
+        <v>67000</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>109794</v>
+        <v>110169</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0889110817683311</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06789180546034507</v>
+        <v>0.06850888898213696</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1122673528952363</v>
+        <v>0.1126499186856981</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>16551</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8938</v>
+        <v>9198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26665</v>
+        <v>27196</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03470662240545833</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01874141903598177</v>
+        <v>0.01928690961805668</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05591468291664942</v>
+        <v>0.05702845433425685</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1192,19 +1192,19 @@
         <v>11423</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5366</v>
+        <v>5760</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20325</v>
+        <v>21312</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02279570690703022</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01070832202395535</v>
+        <v>0.01149579964704887</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04056120324304652</v>
+        <v>0.04253172494976055</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1213,19 +1213,19 @@
         <v>27974</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18692</v>
+        <v>17541</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41768</v>
+        <v>39766</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02860384024722064</v>
+        <v>0.02860384024722063</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0191131834942</v>
+        <v>0.01793657783256204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0427083906206249</v>
+        <v>0.04066134680135187</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>62831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45054</v>
+        <v>45287</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82916</v>
+        <v>83256</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1317507663595688</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09447556761328385</v>
+        <v>0.09496280338777816</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1738678232435056</v>
+        <v>0.1745816052299619</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -1263,19 +1263,19 @@
         <v>65645</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50854</v>
+        <v>51324</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>83807</v>
+        <v>81583</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1310061474480983</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1014883730687986</v>
+        <v>0.1024271383054743</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1672525071970553</v>
+        <v>0.1628131200931371</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -1284,19 +1284,19 @@
         <v>128476</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>106476</v>
+        <v>104663</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>159017</v>
+        <v>154005</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1313692468190928</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.108874074912765</v>
+        <v>0.1070203669074002</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1625980492458092</v>
+        <v>0.1574740409904138</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>356666</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>331965</v>
+        <v>331539</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>379059</v>
+        <v>380178</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7478999914839142</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6961035214194978</v>
+        <v>0.695211214195561</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7948566008043693</v>
+        <v>0.7972019027777919</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>349</v>
@@ -1334,19 +1334,19 @@
         <v>377905</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>355109</v>
+        <v>358387</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>397510</v>
+        <v>396836</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7541764066842231</v>
+        <v>0.7541764066842233</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7086836858861607</v>
+        <v>0.7152247342745128</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7933016434563107</v>
+        <v>0.7919558500559628</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>574</v>
@@ -1355,19 +1355,19 @@
         <v>734571</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>700180</v>
+        <v>704543</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>764812</v>
+        <v>766982</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7511158311653554</v>
+        <v>0.7511158311653553</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7159500699511575</v>
+        <v>0.7204119089927041</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7820381748529209</v>
+        <v>0.7842568691290867</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>50231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37726</v>
+        <v>35861</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65168</v>
+        <v>64447</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08090823370310421</v>
+        <v>0.0809082337031042</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06076628140769592</v>
+        <v>0.05776307552228172</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1049681488146497</v>
+        <v>0.1038066456507352</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>58</v>
@@ -1480,19 +1480,19 @@
         <v>46038</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36187</v>
+        <v>35425</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58246</v>
+        <v>58388</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07416000208923997</v>
+        <v>0.07416000208923998</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05829261779670838</v>
+        <v>0.05706501491126028</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09382602798863844</v>
+        <v>0.09405402803686592</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>102</v>
@@ -1501,19 +1501,19 @@
         <v>96269</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79182</v>
+        <v>78905</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>115695</v>
+        <v>115757</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07753424460636728</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06377306450863507</v>
+        <v>0.06354975958649968</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09318007493940708</v>
+        <v>0.09323029878588565</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>12470</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6438</v>
+        <v>6862</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21356</v>
+        <v>21629</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02008524524064415</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.010369404123149</v>
+        <v>0.01105360958863165</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03439866886841111</v>
+        <v>0.03483782242817505</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>27</v>
@@ -1551,19 +1551,19 @@
         <v>20450</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14031</v>
+        <v>13881</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>29208</v>
+        <v>28705</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.03294265793723586</v>
+        <v>0.03294265793723587</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02260131921815573</v>
+        <v>0.0223604032634479</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0470500253037965</v>
+        <v>0.04623880765310381</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>39</v>
@@ -1572,19 +1572,19 @@
         <v>32920</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>24374</v>
+        <v>24070</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>44686</v>
+        <v>45246</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02651371016787364</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01963107903537684</v>
+        <v>0.01938555962969212</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03599012739568348</v>
+        <v>0.03644117929529147</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>98740</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81533</v>
+        <v>80282</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118626</v>
+        <v>118992</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1590428525536161</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1313282067478137</v>
+        <v>0.1293119252204739</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1910742048671842</v>
+        <v>0.191663998794374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>179</v>
@@ -1622,19 +1622,19 @@
         <v>134983</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>118623</v>
+        <v>118024</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>152206</v>
+        <v>153465</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2174378985016633</v>
+        <v>0.2174378985016634</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1910840425323131</v>
+        <v>0.1901190136928066</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.245180980305491</v>
+        <v>0.2472095475115321</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>266</v>
@@ -1643,19 +1643,19 @@
         <v>233723</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>209682</v>
+        <v>208583</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>259666</v>
+        <v>260991</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1882392790555426</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1688768137119462</v>
+        <v>0.167992062270105</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2091335615165052</v>
+        <v>0.2102010893817356</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>459397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>435890</v>
+        <v>434376</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>481430</v>
+        <v>481129</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7399636685026355</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7020999231180778</v>
+        <v>0.6996619567146256</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7754535658830994</v>
+        <v>0.7749690542343537</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>580</v>
@@ -1693,19 +1693,19 @@
         <v>419318</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>400792</v>
+        <v>400333</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>438393</v>
+        <v>439827</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6754594414718608</v>
+        <v>0.675459441471861</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6456163400063971</v>
+        <v>0.6448765975270739</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7061860773741744</v>
+        <v>0.7084949722587431</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>983</v>
@@ -1714,19 +1714,19 @@
         <v>878715</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>848885</v>
+        <v>845701</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>907745</v>
+        <v>908574</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7077127661702166</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6836872759902349</v>
+        <v>0.681123425837143</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7310934483976154</v>
+        <v>0.7317605831672861</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>45283</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32013</v>
+        <v>33333</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59954</v>
+        <v>59896</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06463335682732622</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04569209688600096</v>
+        <v>0.04757595849690718</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08557320604552945</v>
+        <v>0.08548996975100552</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -1839,19 +1839,19 @@
         <v>47374</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38004</v>
+        <v>36301</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59680</v>
+        <v>59143</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06438609959284654</v>
+        <v>0.06438609959284655</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05165237027946561</v>
+        <v>0.04933743141423214</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08111142666399154</v>
+        <v>0.08038151532705186</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>108</v>
@@ -1860,19 +1860,19 @@
         <v>92657</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>77305</v>
+        <v>76272</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>112479</v>
+        <v>111768</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06450670242305437</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05381907922837595</v>
+        <v>0.05309974166169525</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07830654728160355</v>
+        <v>0.0778118741484929</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>21849</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14131</v>
+        <v>13638</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33561</v>
+        <v>32631</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03118563248427738</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02017001674921444</v>
+        <v>0.01946613936983641</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04790218334628431</v>
+        <v>0.04657430036434443</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -1910,19 +1910,19 @@
         <v>21943</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14924</v>
+        <v>14760</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30515</v>
+        <v>31124</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02982372738934353</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02028343908582255</v>
+        <v>0.02006021592302344</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0414732878258781</v>
+        <v>0.04230149049650832</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>50</v>
@@ -1931,19 +1931,19 @@
         <v>43793</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33545</v>
+        <v>32062</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>57387</v>
+        <v>56519</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.03048801375196146</v>
+        <v>0.03048801375196145</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02335354670000285</v>
+        <v>0.02232135779881042</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03995200472333139</v>
+        <v>0.03934775480217419</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>174199</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>151580</v>
+        <v>150518</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>200951</v>
+        <v>198547</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2486359422479912</v>
+        <v>0.2486359422479911</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2163520716646211</v>
+        <v>0.214835669791123</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2868199475199182</v>
+        <v>0.2833889561418572</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>308</v>
@@ -1981,19 +1981,19 @@
         <v>207394</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>188708</v>
+        <v>188869</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>228665</v>
+        <v>227220</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2818728620693107</v>
+        <v>0.2818728620693108</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2564759065861075</v>
+        <v>0.2566940859243734</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.310781396989987</v>
+        <v>0.3088174202934607</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>464</v>
@@ -2002,19 +2002,19 @@
         <v>381593</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>351676</v>
+        <v>352230</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>411399</v>
+        <v>413447</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2656611358228498</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2448333419159368</v>
+        <v>0.2452186518389723</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2864120164498107</v>
+        <v>0.2878375668210201</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>459286</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>428714</v>
+        <v>433593</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>482681</v>
+        <v>485740</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6555450684404053</v>
+        <v>0.6555450684404052</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6119090093826635</v>
+        <v>0.6188732382591012</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6889372275794824</v>
+        <v>0.6933026726786023</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>733</v>
@@ -2052,19 +2052,19 @@
         <v>459062</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>436677</v>
+        <v>436840</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>479211</v>
+        <v>477710</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6239173109484991</v>
+        <v>0.6239173109484992</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5934944732828961</v>
+        <v>0.5937163770778771</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6513026340990766</v>
+        <v>0.6492621127070619</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1182</v>
@@ -2073,19 +2073,19 @@
         <v>918348</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>885016</v>
+        <v>883031</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>953182</v>
+        <v>952029</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6393441480021343</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6161389314458786</v>
+        <v>0.6147572330841515</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6635958708402011</v>
+        <v>0.6627926366018922</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>46669</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35596</v>
+        <v>34959</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>61092</v>
+        <v>60485</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07658848915676657</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05841650733736413</v>
+        <v>0.05737114099979582</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1002575299511863</v>
+        <v>0.09926163664455996</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -2198,19 +2198,19 @@
         <v>42488</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>34008</v>
+        <v>32960</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>54405</v>
+        <v>53771</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06990726972432461</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05595567785458548</v>
+        <v>0.05423058414470677</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08951509975508451</v>
+        <v>0.08847230910668966</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>112</v>
@@ -2219,19 +2219,19 @@
         <v>89157</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>74088</v>
+        <v>73957</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>105514</v>
+        <v>107734</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.0732522019558282</v>
+        <v>0.07325220195582821</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06087205577157849</v>
+        <v>0.06076381549942366</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08669157315481546</v>
+        <v>0.08851582528052963</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>22535</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15464</v>
+        <v>15587</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31596</v>
+        <v>32532</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03698170628350489</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0253781282395843</v>
+        <v>0.0255797530633686</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05185279227831394</v>
+        <v>0.05338899901851245</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -2269,19 +2269,19 @@
         <v>29261</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20968</v>
+        <v>21179</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37944</v>
+        <v>38299</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04814477191475764</v>
+        <v>0.04814477191475765</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03450058484100218</v>
+        <v>0.0348474178717096</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06243130902494216</v>
+        <v>0.06301546887065851</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>71</v>
@@ -2290,19 +2290,19 @@
         <v>51796</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41259</v>
+        <v>41777</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64872</v>
+        <v>65011</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04255601698612033</v>
+        <v>0.04255601698612034</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03389889868488442</v>
+        <v>0.03432420328143342</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05329943658092173</v>
+        <v>0.05341411897324192</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>199376</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>177241</v>
+        <v>179733</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>220945</v>
+        <v>222941</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3271970315069966</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2908715869703591</v>
+        <v>0.2949599534830655</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3625935692878383</v>
+        <v>0.3658696834984022</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>319</v>
@@ -2340,19 +2340,19 @@
         <v>200071</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>182277</v>
+        <v>182333</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>218428</v>
+        <v>218070</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3291878453765479</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2999093940827293</v>
+        <v>0.3000028112411449</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3593920522169863</v>
+        <v>0.3588018133342285</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>539</v>
@@ -2361,19 +2361,19 @@
         <v>399447</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>369894</v>
+        <v>370382</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>429172</v>
+        <v>426220</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3281911504548317</v>
+        <v>0.3281911504548318</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3039093615370634</v>
+        <v>0.3043105711271095</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.352612985351296</v>
+        <v>0.3501878119080475</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>340766</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>318554</v>
+        <v>317333</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>366322</v>
+        <v>364313</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5592327730527318</v>
+        <v>0.5592327730527319</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.522779849338471</v>
+        <v>0.520775583491758</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6011731116064697</v>
+        <v>0.597876203024496</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>573</v>
@@ -2411,19 +2411,19 @@
         <v>335952</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>315141</v>
+        <v>317023</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>353124</v>
+        <v>354432</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5527601129843699</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5185183755126749</v>
+        <v>0.5216142940014085</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5810134739781646</v>
+        <v>0.5831658244610207</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>941</v>
@@ -2432,19 +2432,19 @@
         <v>676718</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>645209</v>
+        <v>647643</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>704936</v>
+        <v>706656</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5560006306032197</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5301121912270402</v>
+        <v>0.5321120456022166</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5791842913373507</v>
+        <v>0.5805979052178387</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>35271</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26981</v>
+        <v>26699</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46539</v>
+        <v>46784</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08664503284717633</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06628010456641298</v>
+        <v>0.06558717670439029</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1143244628033675</v>
+        <v>0.1149269055809187</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>58</v>
@@ -2557,19 +2557,19 @@
         <v>33314</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25728</v>
+        <v>25602</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>42140</v>
+        <v>42051</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07596313993422577</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05866665528189388</v>
+        <v>0.0583785808824153</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09608744399511104</v>
+        <v>0.09588459790608926</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>106</v>
@@ -2578,19 +2578,19 @@
         <v>68585</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>58345</v>
+        <v>57860</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>82930</v>
+        <v>82268</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.08110529955614011</v>
+        <v>0.08110529955614013</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0689962279614427</v>
+        <v>0.06842244149986743</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09806796981527403</v>
+        <v>0.09728621450644914</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>12140</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7099</v>
+        <v>7392</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19246</v>
+        <v>19297</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02982115964405563</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01743811281098227</v>
+        <v>0.01815850735420797</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04727721325117227</v>
+        <v>0.04740410493351442</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -2628,19 +2628,19 @@
         <v>11731</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7258</v>
+        <v>7401</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18071</v>
+        <v>18072</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.02674884950719705</v>
+        <v>0.02674884950719706</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01654958180977352</v>
+        <v>0.01687492756182212</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04120676489919105</v>
+        <v>0.04120845634830846</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -2649,19 +2649,19 @@
         <v>23870</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>16859</v>
+        <v>16716</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>31775</v>
+        <v>32307</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02822782980221562</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01993671600932423</v>
+        <v>0.01976798311337273</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03757553314346913</v>
+        <v>0.038205021682739</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>150451</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>134920</v>
+        <v>132244</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>166357</v>
+        <v>166785</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.3695858016720722</v>
+        <v>0.3695858016720723</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3314343386382284</v>
+        <v>0.3248607246111588</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4086587983934362</v>
+        <v>0.409709602159665</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>303</v>
@@ -2699,19 +2699,19 @@
         <v>165395</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>149822</v>
+        <v>150868</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>180128</v>
+        <v>179462</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.377138202826459</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3416272497660046</v>
+        <v>0.344013067036617</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4107309516039542</v>
+        <v>0.4092132169596168</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>522</v>
@@ -2720,19 +2720,19 @@
         <v>315846</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>293511</v>
+        <v>293599</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>338363</v>
+        <v>337427</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3735025501775261</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3470900285467398</v>
+        <v>0.3471941508106374</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4001299344758525</v>
+        <v>0.3990228499588346</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>209218</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>192860</v>
+        <v>192473</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>226548</v>
+        <v>228367</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.5139480058366956</v>
+        <v>0.5139480058366958</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4737654991603715</v>
+        <v>0.4728145033589757</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5565184394371456</v>
+        <v>0.5609868098774432</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>445</v>
@@ -2770,19 +2770,19 @@
         <v>228114</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>213891</v>
+        <v>212285</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>243442</v>
+        <v>242369</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5201498077321181</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.487719832570774</v>
+        <v>0.4840556634933456</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.555102418409012</v>
+        <v>0.5526557276901207</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>731</v>
@@ -2791,19 +2791,19 @@
         <v>437331</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>414394</v>
+        <v>414388</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>460538</v>
+        <v>461256</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5171643204641181</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4900403019518433</v>
+        <v>0.4900327468553187</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5446078435441928</v>
+        <v>0.5454568493600404</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>27611</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>20558</v>
+        <v>20355</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>37234</v>
+        <v>36777</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08901133391516045</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06627287439227278</v>
+        <v>0.06561833457783511</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.120032093949457</v>
+        <v>0.1185605242191831</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>59</v>
@@ -2916,19 +2916,19 @@
         <v>33994</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>26264</v>
+        <v>26713</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>44007</v>
+        <v>43928</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07323218189777267</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05657891817120216</v>
+        <v>0.05754728482589121</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09480188725228358</v>
+        <v>0.09463260831522521</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>97</v>
@@ -2937,19 +2937,19 @@
         <v>61606</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>50375</v>
+        <v>50064</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>73396</v>
+        <v>74451</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07955279107826482</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06504998611629513</v>
+        <v>0.06464875721670547</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09477869091319975</v>
+        <v>0.09614002373400592</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>5305</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2470</v>
+        <v>2446</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9880</v>
+        <v>9884</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01710210818298747</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.007962304103129782</v>
+        <v>0.007886286040415171</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03185095188587804</v>
+        <v>0.03186214944665124</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>26</v>
@@ -2987,19 +2987,19 @@
         <v>14577</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>9695</v>
+        <v>9872</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>21052</v>
+        <v>21157</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03140158685923703</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02088527601556278</v>
+        <v>0.02126619374823636</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04535153992462013</v>
+        <v>0.04557756428595944</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>34</v>
@@ -3008,19 +3008,19 @@
         <v>19882</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>13958</v>
+        <v>14024</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>27162</v>
+        <v>27543</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02567368613949244</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01802475249699645</v>
+        <v>0.01810973993582999</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03507447786735741</v>
+        <v>0.0355665532585918</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>126368</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>112381</v>
+        <v>110992</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>140916</v>
+        <v>140045</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4073785084991937</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3622872236724679</v>
+        <v>0.3578091727835109</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4542767246678303</v>
+        <v>0.4514696268828777</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>346</v>
@@ -3058,19 +3058,19 @@
         <v>181005</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>165803</v>
+        <v>165528</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>196295</v>
+        <v>195592</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3899285815198678</v>
+        <v>0.3899285815198679</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3571809443063429</v>
+        <v>0.3565885464520646</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4228681817241604</v>
+        <v>0.4213520617111117</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>543</v>
@@ -3079,19 +3079,19 @@
         <v>307373</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>288026</v>
+        <v>285659</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>329291</v>
+        <v>327924</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3969184481833556</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3719357155672735</v>
+        <v>0.368878194827759</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4252219014260353</v>
+        <v>0.4234563383579445</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>150914</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>134514</v>
+        <v>135720</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>164817</v>
+        <v>165709</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4865080494026582</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4336405506215888</v>
+        <v>0.4375261444255949</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5313270323932604</v>
+        <v>0.5342037884689719</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>449</v>
@@ -3129,19 +3129,19 @@
         <v>234624</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>218872</v>
+        <v>220422</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>252051</v>
+        <v>249684</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5054376497231226</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4715027763905104</v>
+        <v>0.4748437304790781</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5429786110270145</v>
+        <v>0.5378809044507323</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>664</v>
@@ -3150,19 +3150,19 @@
         <v>385538</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>364636</v>
+        <v>362550</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>407175</v>
+        <v>406641</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4978550745988871</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4708642974700117</v>
+        <v>0.4681702829499666</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5257958992201915</v>
+        <v>0.5251060246821564</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>285161</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>246936</v>
+        <v>250475</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>320363</v>
+        <v>323397</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.08071894945415101</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.06989871692974918</v>
+        <v>0.07090074810509962</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09068343119434799</v>
+        <v>0.09154239140937759</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>373</v>
@@ -3275,19 +3275,19 @@
         <v>294975</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>265694</v>
+        <v>264351</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>329148</v>
+        <v>326667</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.07906719728537244</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.07121867269180368</v>
+        <v>0.07085854056015388</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.08822722806564472</v>
+        <v>0.08756231283680402</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>631</v>
@@ -3296,19 +3296,19 @@
         <v>580135</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>532400</v>
+        <v>529642</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>632121</v>
+        <v>630328</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.07987056916194914</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.07329858234512182</v>
+        <v>0.07291877510526135</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.08702769149544425</v>
+        <v>0.08678081593789939</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>98401</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>81126</v>
+        <v>79264</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>121812</v>
+        <v>119736</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02785371463363655</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.022963991835714</v>
+        <v>0.02243674669061251</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03448076357481694</v>
+        <v>0.03389301854061931</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>164</v>
@@ -3346,19 +3346,19 @@
         <v>120063</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>101398</v>
+        <v>103197</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>140047</v>
+        <v>140092</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03218247259935607</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02717953796089948</v>
+        <v>0.02766169534443053</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03753923881723468</v>
+        <v>0.0375512086139887</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>265</v>
@@ -3367,19 +3367,19 @@
         <v>218463</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>191891</v>
+        <v>193125</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>246289</v>
+        <v>247055</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03007707054455624</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02641874919268316</v>
+        <v>0.02658859915171955</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03390798723617715</v>
+        <v>0.03401346090040355</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>831009</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>776798</v>
+        <v>779650</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>881590</v>
+        <v>883099</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2352292828013118</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2198841835059729</v>
+        <v>0.2206913617279007</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.24954705738265</v>
+        <v>0.2499742219065162</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1537</v>
@@ -3417,19 +3417,19 @@
         <v>998074</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>948397</v>
+        <v>952348</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1043027</v>
+        <v>1045928</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2675310939620902</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2542152859736723</v>
+        <v>0.2552744445814856</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2795805849879974</v>
+        <v>0.2803582729269598</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2464</v>
@@ -3438,19 +3438,19 @@
         <v>1829083</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1758385</v>
+        <v>1763522</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1898449</v>
+        <v>1901679</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2518202826554213</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2420869555718708</v>
+        <v>0.2427941218921436</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2613703895275438</v>
+        <v>0.2618149754915883</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>2318192</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2258465</v>
+        <v>2255003</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2378866</v>
+        <v>2381575</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.6561980531109008</v>
+        <v>0.6561980531109007</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6392916697871216</v>
+        <v>0.6383117163719453</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6733728373160744</v>
+        <v>0.6741396915483043</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3282</v>
@@ -3488,19 +3488,19 @@
         <v>2317572</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2260312</v>
+        <v>2264494</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2371806</v>
+        <v>2368813</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.6212192361531814</v>
+        <v>0.6212192361531813</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.6058707148010496</v>
+        <v>0.6069919319848226</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6357566221422354</v>
+        <v>0.6349541661659661</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>5372</v>
@@ -3509,19 +3509,19 @@
         <v>4635764</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4556577</v>
+        <v>4557890</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4712946</v>
+        <v>4713850</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.6382320776380734</v>
+        <v>0.6382320776380732</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.6273299571471361</v>
+        <v>0.6275108089284961</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6488582861674296</v>
+        <v>0.6489827016956685</v>
       </c>
     </row>
     <row r="43">
